--- a/biology/Botanique/Buplèvre/Buplèvre.xlsx
+++ b/biology/Botanique/Buplèvre/Buplèvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre</t>
+          <t>Buplèvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum
 Les Buplèvres (Bupleurum) forment un genre qui comprend près de 100 espèces de plantes herbacées annuelles ou vivaces aux feuilles simples, aux gaines foliaires hypertrophiées et aux fleurs en petites ombelles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre</t>
+          <t>Buplèvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flore de France
-Bupleurum affine Sadler
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bupleurum affine Sadler
 Bupleurum alpigenum Jord. &amp; Fourr.
 Bupleurum angulosum L. - (autre nom: Buplèvre des Pyrénées)
 Bupleurum baldense Turra
@@ -536,9 +553,43 @@
 Bupleurum stellatum  L. - Buplèvre étoilé
 Bupleurum subovatum Link ex Spreng.
 Bupleurum tenuissimum  - Buplèvre très grêle
-Bupleurum virgatum Cav.
-Autres espèces
-Bupleurum americanum Coult. &amp; Rose
+Bupleurum virgatum Cav.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Buplèvre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bupl%C3%A8vre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bupleurum americanum Coult. &amp; Rose
 Bupleurum chinense DC.
 Bupleurum dianthifolium Guss.
 Bupleurum elatum Guss.
